--- a/2-Empirical-Evidence/raw_data/Vermont.xlsx
+++ b/2-Empirical-Evidence/raw_data/Vermont.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Local Area Unemployment Statistics</t>
   </si>
@@ -20,7 +20,7 @@
     <t>Years:</t>
   </si>
   <si>
-    <t>1990 to 2020</t>
+    <t>1990 to 2024</t>
   </si>
   <si>
     <t>Series ID</t>
@@ -148,6 +148,22 @@
   <si>
     <t>Annual
 2020</t>
+  </si>
+  <si>
+    <t>Annual
+2021</t>
+  </si>
+  <si>
+    <t>Annual
+2022</t>
+  </si>
+  <si>
+    <t>Annual
+2023</t>
+  </si>
+  <si>
+    <t>Annual
+2024</t>
   </si>
   <si>
     <t>LAUCN500010000000003</t>
@@ -706,10 +722,22 @@
       <c r="AF4" t="s" s="3">
         <v>34</v>
       </c>
+      <c r="AG4" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="AH4" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="AI4" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="AJ4" t="s" s="3">
+        <v>38</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B5" t="n" s="10">
         <v>4.0</v>
@@ -804,10 +832,20 @@
       <c r="AF5" t="n" s="10">
         <v>4.6</v>
       </c>
+      <c r="AG5" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AH5" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AI5" t="n" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="AJ5"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" t="n" s="8">
         <v>738.0</v>
@@ -902,10 +940,20 @@
       <c r="AF6" t="n" s="8">
         <v>937.0</v>
       </c>
+      <c r="AG6" t="n" s="8">
+        <v>592.0</v>
+      </c>
+      <c r="AH6" t="n" s="8">
+        <v>449.0</v>
+      </c>
+      <c r="AI6" t="n" s="8">
+        <v>368.0</v>
+      </c>
+      <c r="AJ6"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="7">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B7" t="n" s="8">
         <v>17724.0</v>
@@ -1000,10 +1048,20 @@
       <c r="AF7" t="n" s="8">
         <v>19508.0</v>
       </c>
+      <c r="AG7" t="n" s="8">
+        <v>19853.0</v>
+      </c>
+      <c r="AH7" t="n" s="8">
+        <v>20507.0</v>
+      </c>
+      <c r="AI7" t="n" s="8">
+        <v>21099.0</v>
+      </c>
+      <c r="AJ7"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B8" t="n" s="8">
         <v>18462.0</v>
@@ -1098,10 +1156,20 @@
       <c r="AF8" t="n" s="8">
         <v>20445.0</v>
       </c>
+      <c r="AG8" t="n" s="8">
+        <v>20445.0</v>
+      </c>
+      <c r="AH8" t="n" s="8">
+        <v>20956.0</v>
+      </c>
+      <c r="AI8" t="n" s="8">
+        <v>21467.0</v>
+      </c>
+      <c r="AJ8"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="7">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B9" t="n" s="10">
         <v>5.2</v>
@@ -1196,10 +1264,20 @@
       <c r="AF9" t="n" s="10">
         <v>6.5</v>
       </c>
+      <c r="AG9" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AH9" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AI9" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AJ9"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="7">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B10" t="n" s="8">
         <v>975.0</v>
@@ -1294,10 +1372,20 @@
       <c r="AF10" t="n" s="8">
         <v>1154.0</v>
       </c>
+      <c r="AG10" t="n" s="8">
+        <v>783.0</v>
+      </c>
+      <c r="AH10" t="n" s="8">
+        <v>501.0</v>
+      </c>
+      <c r="AI10" t="n" s="8">
+        <v>449.0</v>
+      </c>
+      <c r="AJ10"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B11" t="n" s="8">
         <v>17889.0</v>
@@ -1392,10 +1480,20 @@
       <c r="AF11" t="n" s="8">
         <v>16477.0</v>
       </c>
+      <c r="AG11" t="n" s="8">
+        <v>16553.0</v>
+      </c>
+      <c r="AH11" t="n" s="8">
+        <v>17260.0</v>
+      </c>
+      <c r="AI11" t="n" s="8">
+        <v>17685.0</v>
+      </c>
+      <c r="AJ11"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B12" t="n" s="8">
         <v>18864.0</v>
@@ -1490,10 +1588,20 @@
       <c r="AF12" t="n" s="8">
         <v>17631.0</v>
       </c>
+      <c r="AG12" t="n" s="8">
+        <v>17336.0</v>
+      </c>
+      <c r="AH12" t="n" s="8">
+        <v>17761.0</v>
+      </c>
+      <c r="AI12" t="n" s="8">
+        <v>18134.0</v>
+      </c>
+      <c r="AJ12"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="7">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B13" t="n" s="10">
         <v>5.7</v>
@@ -1588,10 +1696,20 @@
       <c r="AF13" t="n" s="10">
         <v>6.0</v>
       </c>
+      <c r="AG13" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AH13" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AI13" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AJ13"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="7">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B14" t="n" s="8">
         <v>820.0</v>
@@ -1686,10 +1804,20 @@
       <c r="AF14" t="n" s="8">
         <v>865.0</v>
       </c>
+      <c r="AG14" t="n" s="8">
+        <v>560.0</v>
+      </c>
+      <c r="AH14" t="n" s="8">
+        <v>404.0</v>
+      </c>
+      <c r="AI14" t="n" s="8">
+        <v>352.0</v>
+      </c>
+      <c r="AJ14"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="7">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B15" t="n" s="8">
         <v>13524.0</v>
@@ -1784,10 +1912,20 @@
       <c r="AF15" t="n" s="8">
         <v>13641.0</v>
       </c>
+      <c r="AG15" t="n" s="8">
+        <v>13805.0</v>
+      </c>
+      <c r="AH15" t="n" s="8">
+        <v>14301.0</v>
+      </c>
+      <c r="AI15" t="n" s="8">
+        <v>14690.0</v>
+      </c>
+      <c r="AJ15"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="7">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B16" t="n" s="8">
         <v>14344.0</v>
@@ -1882,10 +2020,20 @@
       <c r="AF16" t="n" s="8">
         <v>14506.0</v>
       </c>
+      <c r="AG16" t="n" s="8">
+        <v>14365.0</v>
+      </c>
+      <c r="AH16" t="n" s="8">
+        <v>14705.0</v>
+      </c>
+      <c r="AI16" t="n" s="8">
+        <v>15042.0</v>
+      </c>
+      <c r="AJ16"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="7">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B17" t="n" s="10">
         <v>3.8</v>
@@ -1980,10 +2128,20 @@
       <c r="AF17" t="n" s="10">
         <v>4.7</v>
       </c>
+      <c r="AG17" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AH17" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AI17" t="n" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="AJ17"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="7">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B18" t="n" s="8">
         <v>2922.0</v>
@@ -2078,10 +2236,20 @@
       <c r="AF18" t="n" s="8">
         <v>4513.0</v>
       </c>
+      <c r="AG18" t="n" s="8">
+        <v>2826.0</v>
+      </c>
+      <c r="AH18" t="n" s="8">
+        <v>1762.0</v>
+      </c>
+      <c r="AI18" t="n" s="8">
+        <v>1567.0</v>
+      </c>
+      <c r="AJ18"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="7">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B19" t="n" s="8">
         <v>74820.0</v>
@@ -2176,10 +2344,20 @@
       <c r="AF19" t="n" s="8">
         <v>91326.0</v>
       </c>
+      <c r="AG19" t="n" s="8">
+        <v>92438.0</v>
+      </c>
+      <c r="AH19" t="n" s="8">
+        <v>95805.0</v>
+      </c>
+      <c r="AI19" t="n" s="8">
+        <v>98640.0</v>
+      </c>
+      <c r="AJ19"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="7">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B20" t="n" s="8">
         <v>77742.0</v>
@@ -2274,10 +2452,20 @@
       <c r="AF20" t="n" s="8">
         <v>95839.0</v>
       </c>
+      <c r="AG20" t="n" s="8">
+        <v>95264.0</v>
+      </c>
+      <c r="AH20" t="n" s="8">
+        <v>97567.0</v>
+      </c>
+      <c r="AI20" t="n" s="8">
+        <v>100207.0</v>
+      </c>
+      <c r="AJ20"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="7">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B21" t="n" s="10">
         <v>7.9</v>
@@ -2372,10 +2560,20 @@
       <c r="AF21" t="n" s="10">
         <v>7.6</v>
       </c>
+      <c r="AG21" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AH21" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI21" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AJ21"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="7">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B22" t="n" s="8">
         <v>221.0</v>
@@ -2470,10 +2668,20 @@
       <c r="AF22" t="n" s="8">
         <v>205.0</v>
       </c>
+      <c r="AG22" t="n" s="8">
+        <v>136.0</v>
+      </c>
+      <c r="AH22" t="n" s="8">
+        <v>94.0</v>
+      </c>
+      <c r="AI22" t="n" s="8">
+        <v>80.0</v>
+      </c>
+      <c r="AJ22"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="7">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B23" t="n" s="8">
         <v>2584.0</v>
@@ -2568,10 +2776,20 @@
       <c r="AF23" t="n" s="8">
         <v>2496.0</v>
       </c>
+      <c r="AG23" t="n" s="8">
+        <v>2538.0</v>
+      </c>
+      <c r="AH23" t="n" s="8">
+        <v>2600.0</v>
+      </c>
+      <c r="AI23" t="n" s="8">
+        <v>2671.0</v>
+      </c>
+      <c r="AJ23"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="7">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B24" t="n" s="8">
         <v>2805.0</v>
@@ -2666,10 +2884,20 @@
       <c r="AF24" t="n" s="8">
         <v>2701.0</v>
       </c>
+      <c r="AG24" t="n" s="8">
+        <v>2674.0</v>
+      </c>
+      <c r="AH24" t="n" s="8">
+        <v>2694.0</v>
+      </c>
+      <c r="AI24" t="n" s="8">
+        <v>2751.0</v>
+      </c>
+      <c r="AJ24"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="7">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B25" t="n" s="10">
         <v>5.5</v>
@@ -2764,10 +2992,20 @@
       <c r="AF25" t="n" s="10">
         <v>5.1</v>
       </c>
+      <c r="AG25" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AH25" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AI25" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AJ25"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="7">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B26" t="n" s="8">
         <v>1165.0</v>
@@ -2862,10 +3100,20 @@
       <c r="AF26" t="n" s="8">
         <v>1394.0</v>
       </c>
+      <c r="AG26" t="n" s="8">
+        <v>985.0</v>
+      </c>
+      <c r="AH26" t="n" s="8">
+        <v>647.0</v>
+      </c>
+      <c r="AI26" t="n" s="8">
+        <v>527.0</v>
+      </c>
+      <c r="AJ26"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="7">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B27" t="n" s="8">
         <v>19874.0</v>
@@ -2960,10 +3208,20 @@
       <c r="AF27" t="n" s="8">
         <v>25870.0</v>
       </c>
+      <c r="AG27" t="n" s="8">
+        <v>26410.0</v>
+      </c>
+      <c r="AH27" t="n" s="8">
+        <v>27139.0</v>
+      </c>
+      <c r="AI27" t="n" s="8">
+        <v>27987.0</v>
+      </c>
+      <c r="AJ27"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="7">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B28" t="n" s="8">
         <v>21039.0</v>
@@ -3058,10 +3316,20 @@
       <c r="AF28" t="n" s="8">
         <v>27264.0</v>
       </c>
+      <c r="AG28" t="n" s="8">
+        <v>27395.0</v>
+      </c>
+      <c r="AH28" t="n" s="8">
+        <v>27786.0</v>
+      </c>
+      <c r="AI28" t="n" s="8">
+        <v>28514.0</v>
+      </c>
+      <c r="AJ28"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="7">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B29" t="n" s="10">
         <v>6.5</v>
@@ -3156,10 +3424,20 @@
       <c r="AF29" t="n" s="10">
         <v>5.8</v>
       </c>
+      <c r="AG29" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AH29" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AI29" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AJ29"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="7">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B30" t="n" s="8">
         <v>184.0</v>
@@ -3254,10 +3532,20 @@
       <c r="AF30" t="n" s="8">
         <v>237.0</v>
       </c>
+      <c r="AG30" t="n" s="8">
+        <v>163.0</v>
+      </c>
+      <c r="AH30" t="n" s="8">
+        <v>121.0</v>
+      </c>
+      <c r="AI30" t="n" s="8">
+        <v>88.0</v>
+      </c>
+      <c r="AJ30"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="7">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B31" t="n" s="8">
         <v>2646.0</v>
@@ -3352,10 +3640,20 @@
       <c r="AF31" t="n" s="8">
         <v>3831.0</v>
       </c>
+      <c r="AG31" t="n" s="8">
+        <v>3878.0</v>
+      </c>
+      <c r="AH31" t="n" s="8">
+        <v>4019.0</v>
+      </c>
+      <c r="AI31" t="n" s="8">
+        <v>4138.0</v>
+      </c>
+      <c r="AJ31"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="7">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B32" t="n" s="8">
         <v>2830.0</v>
@@ -3450,10 +3748,20 @@
       <c r="AF32" t="n" s="8">
         <v>4068.0</v>
       </c>
+      <c r="AG32" t="n" s="8">
+        <v>4041.0</v>
+      </c>
+      <c r="AH32" t="n" s="8">
+        <v>4140.0</v>
+      </c>
+      <c r="AI32" t="n" s="8">
+        <v>4226.0</v>
+      </c>
+      <c r="AJ32"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="7">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B33" t="n" s="10">
         <v>6.3</v>
@@ -3548,10 +3856,20 @@
       <c r="AF33" t="n" s="10">
         <v>7.7</v>
       </c>
+      <c r="AG33" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AH33" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AI33" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AJ33"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="7">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B34" t="n" s="8">
         <v>675.0</v>
@@ -3646,10 +3964,20 @@
       <c r="AF34" t="n" s="8">
         <v>1068.0</v>
       </c>
+      <c r="AG34" t="n" s="8">
+        <v>577.0</v>
+      </c>
+      <c r="AH34" t="n" s="8">
+        <v>422.0</v>
+      </c>
+      <c r="AI34" t="n" s="8">
+        <v>362.0</v>
+      </c>
+      <c r="AJ34"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="7">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B35" t="n" s="8">
         <v>9978.0</v>
@@ -3744,10 +4072,20 @@
       <c r="AF35" t="n" s="8">
         <v>12787.0</v>
       </c>
+      <c r="AG35" t="n" s="8">
+        <v>13167.0</v>
+      </c>
+      <c r="AH35" t="n" s="8">
+        <v>13725.0</v>
+      </c>
+      <c r="AI35" t="n" s="8">
+        <v>14213.0</v>
+      </c>
+      <c r="AJ35"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="7">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B36" t="n" s="8">
         <v>10653.0</v>
@@ -3842,10 +4180,20 @@
       <c r="AF36" t="n" s="8">
         <v>13855.0</v>
       </c>
+      <c r="AG36" t="n" s="8">
+        <v>13744.0</v>
+      </c>
+      <c r="AH36" t="n" s="8">
+        <v>14147.0</v>
+      </c>
+      <c r="AI36" t="n" s="8">
+        <v>14575.0</v>
+      </c>
+      <c r="AJ36"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="7">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B37" t="n" s="10">
         <v>4.6</v>
@@ -3940,10 +4288,20 @@
       <c r="AF37" t="n" s="10">
         <v>5.2</v>
       </c>
+      <c r="AG37" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AH37" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AI37" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AJ37"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="7">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B38" t="n" s="8">
         <v>657.0</v>
@@ -4038,10 +4396,20 @@
       <c r="AF38" t="n" s="8">
         <v>829.0</v>
       </c>
+      <c r="AG38" t="n" s="8">
+        <v>529.0</v>
+      </c>
+      <c r="AH38" t="n" s="8">
+        <v>362.0</v>
+      </c>
+      <c r="AI38" t="n" s="8">
+        <v>326.0</v>
+      </c>
+      <c r="AJ38"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="7">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B39" t="n" s="8">
         <v>13564.0</v>
@@ -4136,10 +4504,20 @@
       <c r="AF39" t="n" s="8">
         <v>14990.0</v>
       </c>
+      <c r="AG39" t="n" s="8">
+        <v>15039.0</v>
+      </c>
+      <c r="AH39" t="n" s="8">
+        <v>15464.0</v>
+      </c>
+      <c r="AI39" t="n" s="8">
+        <v>15756.0</v>
+      </c>
+      <c r="AJ39"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="7">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B40" t="n" s="8">
         <v>14221.0</v>
@@ -4234,10 +4612,20 @@
       <c r="AF40" t="n" s="8">
         <v>15819.0</v>
       </c>
+      <c r="AG40" t="n" s="8">
+        <v>15568.0</v>
+      </c>
+      <c r="AH40" t="n" s="8">
+        <v>15826.0</v>
+      </c>
+      <c r="AI40" t="n" s="8">
+        <v>16082.0</v>
+      </c>
+      <c r="AJ40"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="7">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B41" t="n" s="10">
         <v>7.2</v>
@@ -4332,10 +4720,20 @@
       <c r="AF41" t="n" s="10">
         <v>7.6</v>
       </c>
+      <c r="AG41" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AH41" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AI41" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ41"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="7">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B42" t="n" s="8">
         <v>861.0</v>
@@ -4430,10 +4828,20 @@
       <c r="AF42" t="n" s="8">
         <v>995.0</v>
       </c>
+      <c r="AG42" t="n" s="8">
+        <v>634.0</v>
+      </c>
+      <c r="AH42" t="n" s="8">
+        <v>527.0</v>
+      </c>
+      <c r="AI42" t="n" s="8">
+        <v>471.0</v>
+      </c>
+      <c r="AJ42"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="7">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B43" t="n" s="8">
         <v>11087.0</v>
@@ -4528,10 +4936,20 @@
       <c r="AF43" t="n" s="8">
         <v>12056.0</v>
       </c>
+      <c r="AG43" t="n" s="8">
+        <v>12419.0</v>
+      </c>
+      <c r="AH43" t="n" s="8">
+        <v>12843.0</v>
+      </c>
+      <c r="AI43" t="n" s="8">
+        <v>13188.0</v>
+      </c>
+      <c r="AJ43"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="7">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B44" t="n" s="8">
         <v>11948.0</v>
@@ -4626,10 +5044,20 @@
       <c r="AF44" t="n" s="8">
         <v>13051.0</v>
       </c>
+      <c r="AG44" t="n" s="8">
+        <v>13053.0</v>
+      </c>
+      <c r="AH44" t="n" s="8">
+        <v>13370.0</v>
+      </c>
+      <c r="AI44" t="n" s="8">
+        <v>13659.0</v>
+      </c>
+      <c r="AJ44"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="7">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B45" t="n" s="10">
         <v>4.5</v>
@@ -4724,10 +5152,20 @@
       <c r="AF45" t="n" s="10">
         <v>6.7</v>
       </c>
+      <c r="AG45" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AH45" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AI45" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AJ45"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="7">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B46" t="n" s="8">
         <v>1488.0</v>
@@ -4822,10 +5260,20 @@
       <c r="AF46" t="n" s="8">
         <v>2035.0</v>
       </c>
+      <c r="AG46" t="n" s="8">
+        <v>1295.0</v>
+      </c>
+      <c r="AH46" t="n" s="8">
+        <v>864.0</v>
+      </c>
+      <c r="AI46" t="n" s="8">
+        <v>726.0</v>
+      </c>
+      <c r="AJ46"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="7">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B47" t="n" s="8">
         <v>31348.0</v>
@@ -4920,10 +5368,20 @@
       <c r="AF47" t="n" s="8">
         <v>28158.0</v>
       </c>
+      <c r="AG47" t="n" s="8">
+        <v>28330.0</v>
+      </c>
+      <c r="AH47" t="n" s="8">
+        <v>29087.0</v>
+      </c>
+      <c r="AI47" t="n" s="8">
+        <v>29478.0</v>
+      </c>
+      <c r="AJ47"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="7">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B48" t="n" s="8">
         <v>32836.0</v>
@@ -5018,10 +5476,20 @@
       <c r="AF48" t="n" s="8">
         <v>30193.0</v>
       </c>
+      <c r="AG48" t="n" s="8">
+        <v>29625.0</v>
+      </c>
+      <c r="AH48" t="n" s="8">
+        <v>29951.0</v>
+      </c>
+      <c r="AI48" t="n" s="8">
+        <v>30204.0</v>
+      </c>
+      <c r="AJ48"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="7">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B49" t="n" s="10">
         <v>5.1</v>
@@ -5116,10 +5584,20 @@
       <c r="AF49" t="n" s="10">
         <v>4.9</v>
       </c>
+      <c r="AG49" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AH49" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AI49" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AJ49"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="7">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B50" t="n" s="8">
         <v>1510.0</v>
@@ -5214,10 +5692,20 @@
       <c r="AF50" t="n" s="8">
         <v>1652.0</v>
       </c>
+      <c r="AG50" t="n" s="8">
+        <v>1048.0</v>
+      </c>
+      <c r="AH50" t="n" s="8">
+        <v>732.0</v>
+      </c>
+      <c r="AI50" t="n" s="8">
+        <v>685.0</v>
+      </c>
+      <c r="AJ50"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="7">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B51" t="n" s="8">
         <v>28381.0</v>
@@ -5312,10 +5800,20 @@
       <c r="AF51" t="n" s="8">
         <v>32218.0</v>
       </c>
+      <c r="AG51" t="n" s="8">
+        <v>32129.0</v>
+      </c>
+      <c r="AH51" t="n" s="8">
+        <v>33373.0</v>
+      </c>
+      <c r="AI51" t="n" s="8">
+        <v>33930.0</v>
+      </c>
+      <c r="AJ51"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="7">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B52" t="n" s="8">
         <v>29891.0</v>
@@ -5410,10 +5908,20 @@
       <c r="AF52" t="n" s="8">
         <v>33870.0</v>
       </c>
+      <c r="AG52" t="n" s="8">
+        <v>33177.0</v>
+      </c>
+      <c r="AH52" t="n" s="8">
+        <v>34105.0</v>
+      </c>
+      <c r="AI52" t="n" s="8">
+        <v>34615.0</v>
+      </c>
+      <c r="AJ52"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="7">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B53" t="n" s="10">
         <v>4.5</v>
@@ -5508,10 +6016,20 @@
       <c r="AF53" t="n" s="10">
         <v>6.7</v>
       </c>
+      <c r="AG53" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AH53" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AI53" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AJ53"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="7">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B54" t="n" s="8">
         <v>992.0</v>
@@ -5606,10 +6124,20 @@
       <c r="AF54" t="n" s="8">
         <v>1454.0</v>
       </c>
+      <c r="AG54" t="n" s="8">
+        <v>970.0</v>
+      </c>
+      <c r="AH54" t="n" s="8">
+        <v>542.0</v>
+      </c>
+      <c r="AI54" t="n" s="8">
+        <v>504.0</v>
+      </c>
+      <c r="AJ54"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="7">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B55" t="n" s="8">
         <v>20929.0</v>
@@ -5704,10 +6232,20 @@
       <c r="AF55" t="n" s="8">
         <v>20154.0</v>
       </c>
+      <c r="AG55" t="n" s="8">
+        <v>19926.0</v>
+      </c>
+      <c r="AH55" t="n" s="8">
+        <v>20694.0</v>
+      </c>
+      <c r="AI55" t="n" s="8">
+        <v>21242.0</v>
+      </c>
+      <c r="AJ55"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="7">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B56" t="n" s="8">
         <v>21921.0</v>
@@ -5802,10 +6340,20 @@
       <c r="AF56" t="n" s="8">
         <v>21608.0</v>
       </c>
+      <c r="AG56" t="n" s="8">
+        <v>20896.0</v>
+      </c>
+      <c r="AH56" t="n" s="8">
+        <v>21236.0</v>
+      </c>
+      <c r="AI56" t="n" s="8">
+        <v>21746.0</v>
+      </c>
+      <c r="AJ56"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="7">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B57" t="n" s="10">
         <v>4.2</v>
@@ -5900,10 +6448,20 @@
       <c r="AF57" t="n" s="10">
         <v>5.9</v>
       </c>
+      <c r="AG57" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AH57" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AI57" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AJ57"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="7">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B58" t="n" s="8">
         <v>1232.0</v>
@@ -5998,10 +6556,20 @@
       <c r="AF58" t="n" s="8">
         <v>1711.0</v>
       </c>
+      <c r="AG58" t="n" s="8">
+        <v>998.0</v>
+      </c>
+      <c r="AH58" t="n" s="8">
+        <v>576.0</v>
+      </c>
+      <c r="AI58" t="n" s="8">
+        <v>540.0</v>
+      </c>
+      <c r="AJ58"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="7">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B59" t="n" s="8">
         <v>28199.0</v>
@@ -6096,10 +6664,20 @@
       <c r="AF59" t="n" s="8">
         <v>27198.0</v>
       </c>
+      <c r="AG59" t="n" s="8">
+        <v>27681.0</v>
+      </c>
+      <c r="AH59" t="n" s="8">
+        <v>28731.0</v>
+      </c>
+      <c r="AI59" t="n" s="8">
+        <v>29123.0</v>
+      </c>
+      <c r="AJ59"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="7">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B60" t="n" s="8">
         <v>29431.0</v>
@@ -6194,6 +6772,16 @@
       <c r="AF60" t="n" s="8">
         <v>28909.0</v>
       </c>
+      <c r="AG60" t="n" s="8">
+        <v>28679.0</v>
+      </c>
+      <c r="AH60" t="n" s="8">
+        <v>29307.0</v>
+      </c>
+      <c r="AI60" t="n" s="8">
+        <v>29663.0</v>
+      </c>
+      <c r="AJ60"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -6204,7 +6792,7 @@
   <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: December 27, 2024 (10:50:19 AM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: January 5, 2025 (03:43:01 PM)</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
